--- a/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,86</t>
+          <t>-3,06; 5,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,67</t>
+          <t>-3,3; 1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,06</t>
+          <t>-1,65; 2,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 6,6</t>
+          <t>-2,47; 7,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,89</t>
+          <t>-4,77; 1,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,22</t>
+          <t>-2,45; 3,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,29</t>
+          <t>-0,96; 3,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,87</t>
+          <t>-4,11; 0,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,22; 74,55</t>
+          <t>-76,22; 68,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,01; 297,13</t>
+          <t>-74,91; 314,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 737,35</t>
+          <t>-67,17; 710,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 9,21</t>
+          <t>0,47; 8,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,16</t>
+          <t>-1,28; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,92</t>
+          <t>-0,8; 4,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,0</t>
+          <t>-2,36; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,33; —</t>
+          <t>-68,33; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,52</t>
+          <t>-1,64; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,17</t>
+          <t>-1,1; 5,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,97</t>
+          <t>-2,79; 1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 13,92</t>
+          <t>-1,2; 13,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,61; 359,04</t>
+          <t>-41,31; 324,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 1441,33</t>
+          <t>-78,74; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,83</t>
+          <t>-0,88; 2,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,75</t>
+          <t>-0,81; 1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,9</t>
+          <t>-0,41; 1,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,45</t>
+          <t>-1,02; 5,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 135,16</t>
+          <t>-26,17; 116,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 174,73</t>
+          <t>-44,27; 188,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 342,19</t>
+          <t>-30,1; 335,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 694,75</t>
+          <t>-70,09; 604,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5B_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>106,63%</t>
+          <t>109,26%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,21</t>
+          <t>-2,95; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,53</t>
+          <t>-3,39; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,96</t>
+          <t>-1,73; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 7,08</t>
+          <t>-2,02; 7,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-61,69%</t>
+          <t>-62,69%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,64</t>
+          <t>-4,86; 1,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,2</t>
+          <t>-1,96; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,77</t>
+          <t>-0,84; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,73</t>
+          <t>-4,44; 0,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,22; 68,12</t>
+          <t>-78,35; 69,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 314,4</t>
+          <t>-65,28; 363,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,17; 710,39</t>
+          <t>-62,96; 881,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 219,63</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,6</t>
+          <t>0,42; 9,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,15</t>
+          <t>-1,28; 2,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,44</t>
+          <t>-1,1; 4,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,0</t>
+          <t>-2,83; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,33; —</t>
+          <t>-45,58; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>219,82%</t>
+          <t>834,74%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,63</t>
+          <t>-2,06; 5,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 5,21</t>
+          <t>-1,07; 5,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,07</t>
+          <t>-2,98; 1,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 13,93</t>
+          <t>-1,19; 35,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,31; 324,15</t>
+          <t>-52,31; 361,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,74; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>267,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,69</t>
+          <t>-0,96; 2,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,94</t>
+          <t>-1,03; 1,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,85</t>
+          <t>-0,51; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,99</t>
+          <t>-0,87; 18,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 116,15</t>
+          <t>-24,52; 132,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 188,5</t>
+          <t>-51,07; 158,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 335,53</t>
+          <t>-35,68; 289,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 604,99</t>
+          <t>-63,98; 1757,94</t>
         </is>
       </c>
     </row>
